--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/fp-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F5F03B-BABA-E545-B998-3493844E492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D38885-B1A4-574F-856F-F1C0F59963C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{12B3B812-4830-C349-8EFE-A4D906CFA645}"/>
+    <workbookView xWindow="1100" yWindow="1560" windowWidth="28040" windowHeight="17680" xr2:uid="{12B3B812-4830-C349-8EFE-A4D906CFA645}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -46,24 +46,37 @@
     <t>Thursday</t>
   </si>
   <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>09:15:00 - 10:15
+Lecture 1
+IT118</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:15 - 13:15
+Lecture 2
 IT220
 </t>
   </si>
   <si>
     <t>11:15 - 13:15
+Practical Class
+W1
 IT101</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>09:15:00 - 10:15
-IT118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Programmming Timetable for all students 
-(i.e. no sub-groupings) </t>
+    <t>Functional Programmming Timetable for all students 
+(Lectures and Practical Classes)</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>13:15 - 15:15
+Practical Class
+W2
+IT119</t>
   </si>
 </sst>
 </file>
@@ -86,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +109,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,10 +164,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,75 +484,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2D0417-CDFB-FE42-A251-CA59BBC86C91}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="64" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="3">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
